--- a/example/dist/lang.xlsx
+++ b/example/dist/lang.xlsx
@@ -375,80 +375,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>FieldPath(Dont modify!)</v>
+        <v>[[ID]]</v>
       </c>
       <c r="B1" t="str">
-        <v>Content To Translate</v>
+        <v>[Content To Translate]</v>
       </c>
       <c r="C1" t="str">
-        <v>英文-en</v>
+        <v>en</v>
       </c>
       <c r="D1" t="str">
-        <v>印地语-hi</v>
+        <v>hi</v>
       </c>
       <c r="E1" t="str">
-        <v>印度尼西亚语-id</v>
+        <v>id</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>[[ID]]</v>
+        <v>Common.Home</v>
       </c>
       <c r="B2" t="str">
-        <v>[Content To Translate]</v>
-      </c>
-      <c r="C2" t="str">
-        <v>en</v>
-      </c>
-      <c r="D2" t="str">
-        <v>hi</v>
-      </c>
-      <c r="E2" t="str">
-        <v>id</v>
+        <v>Home</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Common.Home</v>
+        <v>Common.FAQ</v>
       </c>
       <c r="B3" t="str">
-        <v>Home</v>
+        <v>FAQ</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Common.FAQ</v>
+        <v>Common.Policy</v>
       </c>
       <c r="B4" t="str">
-        <v>FAQ</v>
+        <v>Privacy Policy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Common.Policy</v>
+        <v>Home.title</v>
       </c>
       <c r="B5" t="str">
-        <v>Privacy Policy</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Home.title</v>
-      </c>
-      <c r="B6" t="str">
         <v>I'm home title</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>